--- a/My_Progress/html_css_js--task.xlsx
+++ b/My_Progress/html_css_js--task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="96">
   <si>
     <t>HTML &amp; CSS - база</t>
   </si>
@@ -208,21 +208,12 @@
     <t>https://rutracker.org/forum/viewtopic.php?t=5915645</t>
   </si>
   <si>
-    <t>lesson 3</t>
-  </si>
-  <si>
     <t>lesson 21</t>
   </si>
   <si>
-    <t>page 26</t>
-  </si>
-  <si>
     <t>code.mu</t>
   </si>
   <si>
-    <t>http://code.mu/ru/javascript/book/prime/multidimensionality/conversion-of-multi-structures/</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>My Projects\Current Status - in detail</t>
   </si>
   <si>
-    <t>chapter 3</t>
-  </si>
-  <si>
     <t>Drupal</t>
   </si>
   <si>
@@ -293,6 +281,27 @@
   </si>
   <si>
     <t>энциклопедия 720 стр</t>
+  </si>
+  <si>
+    <t>chapter 4</t>
+  </si>
+  <si>
+    <t>25/07/20</t>
+  </si>
+  <si>
+    <t>page 26 - stop!!</t>
+  </si>
+  <si>
+    <t>lesson 4</t>
+  </si>
+  <si>
+    <t>25/7/2020</t>
+  </si>
+  <si>
+    <t>repeated</t>
+  </si>
+  <si>
+    <t>http://code.mu/ru/javascript/book/prime/functions/examples/</t>
   </si>
 </sst>
 </file>
@@ -577,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -586,10 +595,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -617,9 +622,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -636,6 +638,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -944,7 +956,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -959,35 +971,35 @@
   <sheetData>
     <row r="1" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1088,8 +1100,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>92</v>
+      <c r="C10" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
@@ -1169,7 +1181,7 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1189,19 +1201,19 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1294,8 +1306,8 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>88</v>
+      <c r="A22" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
@@ -1309,47 +1321,47 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1361,7 +1373,7 @@
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="1">
@@ -1382,115 +1394,117 @@
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="17">
-        <v>43837</v>
+      <c r="D27" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="44" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="26" t="s">
-        <v>50</v>
+      <c r="C28" s="17"/>
+      <c r="D28" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="18" t="s">
-        <v>75</v>
+      <c r="F28" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="22" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="18" t="s">
-        <v>66</v>
+      <c r="F29" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="18" t="s">
-        <v>65</v>
+      <c r="F30" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>50</v>
+      <c r="D31" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="18" t="s">
-        <v>64</v>
+      <c r="F31" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="27" t="s">
-        <v>50</v>
+      <c r="C32" s="18"/>
+      <c r="D32" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="13" t="s">
-        <v>68</v>
+      <c r="F32" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="16"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="2"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -1503,111 +1517,111 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="A36" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="41">
-        <v>1</v>
-      </c>
-      <c r="F37" s="43"/>
+      <c r="E37" s="34">
+        <v>1</v>
+      </c>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="35">
+        <v>1</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="33" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="42">
-        <v>1</v>
-      </c>
-      <c r="F38" s="33" t="s">
+      <c r="B39" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="42">
-        <v>1</v>
-      </c>
-      <c r="F39" s="33"/>
+      <c r="E39" s="35">
+        <v>1</v>
+      </c>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1627,10 +1641,10 @@
     <hyperlink ref="A28" r:id="rId5"/>
     <hyperlink ref="C31" r:id="rId6"/>
     <hyperlink ref="C30" r:id="rId7"/>
-    <hyperlink ref="F32" r:id="rId8"/>
-    <hyperlink ref="C40" r:id="rId9"/>
-    <hyperlink ref="F41" r:id="rId10"/>
-    <hyperlink ref="C23" r:id="rId11"/>
+    <hyperlink ref="C40" r:id="rId8"/>
+    <hyperlink ref="F41" r:id="rId9"/>
+    <hyperlink ref="C23" r:id="rId10"/>
+    <hyperlink ref="F32" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
